--- a/Ready/Практическая работа №6.xlsx
+++ b/Ready/Практическая работа №6.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Отчетная ведомость" sheetId="2" r:id="rId2"/>
     <sheet name="Ведомость зарплаты " sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Наименование</t>
   </si>
@@ -220,18 +223,16 @@
   </si>
   <si>
     <t>РАСЧЁТ ЗАРАБОТНОЙ ПЛАТЫ СОТРУДНИКОВ</t>
-  </si>
-  <si>
-    <t>"=ЕСЛИ(E5&lt;=5; 0.1; ЕСЛИ(E5&lt;=7; 0.15; ЕСЛИ(E5&lt;=10; 0.2; ЕСЛИ(E5&lt;=15; 0.25; 0.3))))"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,###.00&quot; тыс.руб.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,###.00&quot; тыс.руб.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -356,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,19 +379,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,8 +393,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -410,18 +412,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -634,24 +692,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122888576"/>
-        <c:axId val="122890112"/>
+        <c:axId val="136063232"/>
+        <c:axId val="136081792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122888576"/>
+        <c:axId val="136063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122890112"/>
+        <c:crossAx val="136081792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122890112"/>
+        <c:axId val="136081792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +735,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122888576"/>
+        <c:crossAx val="136063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -699,7 +757,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -720,9 +778,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16506432541374069"/>
-          <c:y val="0.1676677009530067"/>
-          <c:w val="0.62383954249150486"/>
-          <c:h val="0.55393880240683269"/>
+          <c:y val="0.16766770095300668"/>
+          <c:w val="0.62383954249150508"/>
+          <c:h val="0.5539388024068328"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -827,9 +885,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="1.4864391951006124E-2"/>
-          <c:y val="0.85745177165354336"/>
+          <c:y val="0.85745177165354358"/>
           <c:w val="0.96193788276465442"/>
-          <c:h val="0.11475360892388449"/>
+          <c:h val="0.1147536089238845"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -844,7 +902,322 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0"/>
+              <a:t>Сравнительная диаграмма заработной платы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Ведомость зарплаты'!$B$5:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Антонов Р.И.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Борисов И.П.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вольская О.А.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Иванов В.А.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Комаров Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Крючков Н.Р.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Новиков Л.Д.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Огарев Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Петров К.О.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Реутова Е.Г.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Сидоров И.Н.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Степаненко В.Д.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Тимофеев Н.Н.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Уткина Е.В.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Федоров А.Н.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Ведомость зарплаты'!$K$5:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "₽"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26303.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32818.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26830.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31556.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17299.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30281.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9EA-409C-8FDF-63F53719E1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="165"/>
+        <c:overlap val="100"/>
+        <c:axId val="123138816"/>
+        <c:axId val="123140352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123138816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123140352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123140352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;₽&quot;" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123138816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -918,6 +1291,185 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7307268-4ECC-DDEE-ACDC-CCEAB9821FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ведомость переоценки"/>
+      <sheetName val="Отчетная ведомость"/>
+      <sheetName val="Ведомость зарплаты"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Антонов Р.И.</v>
+          </cell>
+          <cell r="K5">
+            <v>15858.04</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Борисов И.П.</v>
+          </cell>
+          <cell r="K6">
+            <v>28514.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Вольская О.А.</v>
+          </cell>
+          <cell r="K7">
+            <v>26303.95</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Иванов В.А.</v>
+          </cell>
+          <cell r="K8">
+            <v>15858.04</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Комаров Н.И.</v>
+          </cell>
+          <cell r="K9">
+            <v>32818.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Крючков Н.Р.</v>
+          </cell>
+          <cell r="K10">
+            <v>29714.85</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Новиков Л.Д.</v>
+          </cell>
+          <cell r="K11">
+            <v>26830.799999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Огарев Н.И.</v>
+          </cell>
+          <cell r="K12">
+            <v>25160.3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Петров К.О.</v>
+          </cell>
+          <cell r="K13">
+            <v>32130</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Реутова Е.Г.</v>
+          </cell>
+          <cell r="K14">
+            <v>31556.25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Сидоров И.Н.</v>
+          </cell>
+          <cell r="K15">
+            <v>28514.25</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Степаненко В.Д.</v>
+          </cell>
+          <cell r="K16">
+            <v>17299.68</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Тимофеев Н.Н.</v>
+          </cell>
+          <cell r="K17">
+            <v>29714.85</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Уткина Е.В.</v>
+          </cell>
+          <cell r="K18">
+            <v>25160.3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Федоров А.Н.</v>
+          </cell>
+          <cell r="K19">
+            <v>30281.25</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1222,15 +1774,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="60">
       <c r="A4" s="2" t="s">
@@ -1259,13 +1811,13 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>19087.8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>568.79999999999995</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>18519</v>
       </c>
       <c r="E5" s="5">
@@ -1285,13 +1837,13 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>407.2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>203.1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>204.1</v>
       </c>
       <c r="E6" s="5">
@@ -1311,13 +1863,13 @@
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>673</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>198.9</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>474.1</v>
       </c>
       <c r="E7" s="5">
@@ -1337,13 +1889,13 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>821.6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>401.2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>420.4</v>
       </c>
       <c r="E8" s="5">
@@ -1363,13 +1915,13 @@
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>598.4</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>131.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>466.9</v>
       </c>
       <c r="E9" s="5">
@@ -1389,13 +1941,13 @@
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>610</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>345.6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>264.39999999999998</v>
       </c>
       <c r="E10" s="5">
@@ -1415,13 +1967,13 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>756.3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>159.6</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>596.70000000000005</v>
       </c>
       <c r="E11" s="5">
@@ -1441,13 +1993,13 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>614</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>148.69999999999999</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>465.6</v>
       </c>
       <c r="E12" s="5">
@@ -1467,15 +2019,15 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f t="shared" ref="B13:G13" si="3">SUM(B5:B12)</f>
         <v>23568.3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f t="shared" si="3"/>
         <v>2157.3999999999996</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="3"/>
         <v>21411.200000000001</v>
       </c>
@@ -1550,16 +2102,16 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>345000</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>543000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>423000</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f>SUM(B2:D2)</f>
         <v>1311000</v>
       </c>
@@ -1567,11 +2119,11 @@
         <f>RANK(E2,$E$2:$E$11,1)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f>AVERAGE(B2:D2)</f>
         <v>437000</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f>(E2/$E$12)*100%</f>
         <v>6.4406779661016947E-2</v>
       </c>
@@ -1580,16 +2132,16 @@
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>657000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>234000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>453000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E11" si="0">SUM(B3:D3)</f>
         <v>1344000</v>
       </c>
@@ -1597,11 +2149,11 @@
         <f t="shared" ref="F3:F11" si="1">RANK(E3,$E$2:$E$11,1)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G11" si="2">AVERAGE(B3:D3)</f>
         <v>448000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H11" si="3">(E3/$E$12)*100%</f>
         <v>6.6028002947678702E-2</v>
       </c>
@@ -1610,16 +2162,16 @@
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>765000</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>904000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>856000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>2525000</v>
       </c>
@@ -1627,11 +2179,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" si="2"/>
         <v>841666.66666666663</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f t="shared" si="3"/>
         <v>0.12404814541881602</v>
       </c>
@@ -1640,16 +2192,16 @@
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>798000</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>735000</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>654000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>2187000</v>
       </c>
@@ -1657,11 +2209,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="2"/>
         <v>729000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f t="shared" si="3"/>
         <v>0.10744288872512896</v>
       </c>
@@ -1670,16 +2222,16 @@
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>879000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>984000</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>971000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>2834000</v>
       </c>
@@ -1687,11 +2239,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="2"/>
         <v>944666.66666666663</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f t="shared" si="3"/>
         <v>0.13922869073937608</v>
       </c>
@@ -1700,16 +2252,16 @@
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>375000</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>594000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>512000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>1481000</v>
       </c>
@@ -1717,11 +2269,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="2"/>
         <v>493666.66666666669</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f t="shared" si="3"/>
         <v>7.2758535986244169E-2</v>
       </c>
@@ -1730,16 +2282,16 @@
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>912000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>634000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>879000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>2425000</v>
       </c>
@@ -1747,11 +2299,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="2"/>
         <v>808333.33333333337</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f t="shared" si="3"/>
         <v>0.11913534758044707</v>
       </c>
@@ -1760,16 +2312,16 @@
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>467000</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>593000</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>598000</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>1658000</v>
       </c>
@@ -1777,11 +2329,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="2"/>
         <v>552666.66666666663</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f t="shared" si="3"/>
         <v>8.1454188160157204E-2</v>
       </c>
@@ -1790,16 +2342,16 @@
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>1003000</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>945000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>877000</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>2825000</v>
       </c>
@@ -1807,11 +2359,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="2"/>
         <v>941666.66666666663</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f t="shared" si="3"/>
         <v>0.13878653893392287</v>
       </c>
@@ -1820,16 +2372,16 @@
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>545000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>567000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>653000</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>1765000</v>
       </c>
@@ -1837,11 +2389,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f t="shared" si="2"/>
         <v>588333.33333333337</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" si="3"/>
         <v>8.6710881847211985E-2</v>
       </c>
@@ -1850,19 +2402,19 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>SUM(B2:B11)</f>
         <v>6746000</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>SUM(C2:C11)</f>
         <v>6733000</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>SUM(D2:D11)</f>
         <v>6876000</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>SUM(E2:E11)</f>
         <v>20355000</v>
       </c>
@@ -1882,448 +2434,724 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="45">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>15670</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="F5" s="4">
+        <f>IF(E5&lt;=5,0.1,IF(E5&lt;=7,0.15,IF(E5&lt;=10,0.2,IF(E5&lt;=15,0.25,0.3))))</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="26">
+        <f>D5*F5</f>
+        <v>1567</v>
+      </c>
+      <c r="H5" s="26">
+        <f>D5+G5</f>
+        <v>17237</v>
+      </c>
+      <c r="I5" s="11">
+        <f>IF(H5&lt;=20000,0.08,IF(H5&lt;=30000,0.11,IF(H5&lt;=35000,0.13,0.15)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="26">
+        <f>H5*I5</f>
+        <v>1378.96</v>
+      </c>
+      <c r="K5" s="26">
+        <f>H5-J5</f>
+        <v>15858.04</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="18">
         <v>28500</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="F6" s="4">
+        <f>IF(E6&lt;=5,0.1,IF(E6&lt;=7,0.15,IF(E6&lt;=10,0.2,IF(E6&lt;=15,0.25,0.3))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" ref="G6:G19" si="0">D6*F6</f>
+        <v>4275</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" ref="H6:H19" si="1">D6+G6</f>
+        <v>32775</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I19" si="2">IF(H6&lt;=20000,0.08,IF(H6&lt;=30000,0.11,IF(H6&lt;=35000,0.13,0.15)))</f>
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="26">
+        <f t="shared" ref="J6:J19" si="3">H6*I6</f>
+        <v>4260.75</v>
+      </c>
+      <c r="K6" s="26">
+        <f t="shared" ref="K6:K19" si="4">H6-J6</f>
+        <v>28514.25</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="18">
         <v>25700</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="4">
         <v>7</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F19" si="5">IF(E7&lt;=5,0.1,IF(E7&lt;=7,0.15,IF(E7&lt;=10,0.2,IF(E7&lt;=15,0.25,0.3))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>3855</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="1"/>
+        <v>29555</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" si="3"/>
+        <v>3251.05</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="4"/>
+        <v>26303.95</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="18">
         <v>15670</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>1567</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" si="1"/>
+        <v>17237</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="26">
+        <f t="shared" si="3"/>
+        <v>1378.96</v>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" si="4"/>
+        <v>15858.04</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="18">
         <v>29700</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="F9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>8910</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="1"/>
+        <v>38610</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="3"/>
+        <v>5791.5</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="4"/>
+        <v>32818.5</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="18">
         <v>29700</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="F10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>4455</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="1"/>
+        <v>34155</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="26">
+        <f t="shared" si="3"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="4"/>
+        <v>29714.85</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>25700</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="F11" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
+        <v>5140</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="1"/>
+        <v>30840</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="26">
+        <f t="shared" si="3"/>
+        <v>4009.2000000000003</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" si="4"/>
+        <v>26830.799999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <v>25700</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="F12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="1"/>
+        <v>28270</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="J12" s="26">
+        <f t="shared" si="3"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="4"/>
+        <v>25160.3</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="18">
         <v>31500</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="F13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="1"/>
+        <v>37800</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="26">
+        <f t="shared" si="3"/>
+        <v>5670</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="4"/>
+        <v>32130</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="18">
         <v>29700</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="F14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="0"/>
+        <v>7425</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="1"/>
+        <v>37125</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="3"/>
+        <v>5568.75</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="4"/>
+        <v>31556.25</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="18">
         <v>28500</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="4">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="F15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="0"/>
+        <v>4275</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="1"/>
+        <v>32775</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="3"/>
+        <v>4260.75</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="4"/>
+        <v>28514.25</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="18">
         <v>15670</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="4">
         <v>8</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="F16" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="0"/>
+        <v>3134</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="1"/>
+        <v>18804</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="3"/>
+        <v>1504.32</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" si="4"/>
+        <v>17299.68</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="18">
         <v>29700</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>4455</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="1"/>
+        <v>34155</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="3"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="4"/>
+        <v>29714.85</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>25700</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="F18" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="1"/>
+        <v>28270</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="3"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="4"/>
+        <v>25160.3</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>28500</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="4">
         <v>14</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="F19" s="4">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="0"/>
+        <v>7125</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="1"/>
+        <v>35625</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="26">
+        <f t="shared" si="3"/>
+        <v>5343.75</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="4"/>
+        <v>30281.25</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="27">
+        <f>SUM(K5:K19)</f>
+        <v>395715.30999999994</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
+      <c r="F23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2331,7 +3159,37 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E8 E10:E19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>10</formula>
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between">
+      <formula>0</formula>
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошиба" error="Стаж не можт быть отрицательным" sqref="E5:E19">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>